--- a/[A.Gerencial]/CalculoProcesos.xlsx
+++ b/[A.Gerencial]/CalculoProcesos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>Proceso</t>
   </si>
@@ -70,13 +70,16 @@
   </si>
   <si>
     <t>Factibilidad</t>
+  </si>
+  <si>
+    <t>Promedio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,15 +127,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +153,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -287,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -367,24 +369,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -392,6 +382,24 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -690,9 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -701,6 +707,7 @@
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -748,7 +755,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="14">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>2</v>
@@ -760,10 +767,12 @@
         <v>2</v>
       </c>
       <c r="J2" s="25">
+        <f>H2+I2</f>
         <v>3</v>
       </c>
-      <c r="K2" s="18">
-        <v>12.5</v>
+      <c r="K2" s="34">
+        <f>J2*100/$J$10</f>
+        <v>13.636363636363637</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
@@ -777,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="16">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>3</v>
@@ -788,11 +797,13 @@
       <c r="I3" s="26">
         <v>1</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="25">
+        <f t="shared" ref="J3:J9" si="0">H3+I3</f>
         <v>2</v>
       </c>
-      <c r="K3" s="16">
-        <v>8.33</v>
+      <c r="K3" s="34">
+        <f t="shared" ref="K3:K9" si="1">J3*100/$J$10</f>
+        <v>9.0909090909090917</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1">
@@ -806,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>4</v>
@@ -818,10 +829,12 @@
         <v>2</v>
       </c>
       <c r="J4" s="25">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K4" s="18">
-        <v>12.5</v>
+      <c r="K4" s="34">
+        <f t="shared" si="1"/>
+        <v>13.636363636363637</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
@@ -829,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>5</v>
@@ -846,11 +859,13 @@
       <c r="I5" s="26">
         <v>1</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K5" s="16">
-        <v>12.5</v>
+      <c r="K5" s="34">
+        <f t="shared" si="1"/>
+        <v>13.636363636363637</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1">
@@ -876,10 +891,12 @@
         <v>1</v>
       </c>
       <c r="J6" s="25">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K6" s="18">
-        <v>12.5</v>
+      <c r="K6" s="34">
+        <f t="shared" si="1"/>
+        <v>13.636363636363637</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
@@ -887,7 +904,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>7</v>
@@ -895,20 +912,22 @@
       <c r="E7" s="20">
         <v>5</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="36">
+        <v>1</v>
+      </c>
+      <c r="I7" s="36">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I7" s="28">
-        <v>2</v>
-      </c>
-      <c r="J7" s="28">
-        <v>4</v>
-      </c>
-      <c r="K7" s="29">
-        <v>16.670000000000002</v>
+      <c r="K7" s="34">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090917</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
@@ -934,10 +953,12 @@
         <v>1</v>
       </c>
       <c r="J8" s="25">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K8" s="18">
-        <v>12.5</v>
+      <c r="K8" s="34">
+        <f t="shared" si="1"/>
+        <v>13.636363636363637</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
@@ -956,17 +977,19 @@
       <c r="G9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="27">
         <v>1</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="27">
         <v>2</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="25">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K9" s="22">
-        <v>12.5</v>
+      <c r="K9" s="34">
+        <f t="shared" si="1"/>
+        <v>13.636363636363637</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -987,13 +1010,17 @@
       <c r="G10" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="J10">
+        <f>SUM(J2:J9)</f>
+        <v>22</v>
+      </c>
       <c r="K10">
         <f>SUM(K2:K9)</f>
-        <v>100</v>
+        <v>100.00000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1010,8 +1037,11 @@
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="29" t="s">
         <v>11</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1">
@@ -1019,17 +1049,24 @@
         <v>2</v>
       </c>
       <c r="B15" s="4">
+        <f>B2</f>
         <v>12.5</v>
       </c>
-      <c r="C15" s="32">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="E15" s="35">
+      <c r="C15" s="37">
+        <f>E2</f>
+        <v>25</v>
+      </c>
+      <c r="D15" s="34">
+        <f>K2</f>
+        <v>13.636363636363637</v>
+      </c>
+      <c r="E15" s="31">
         <f>(B15+C15+D15)/3</f>
-        <v>18.333333333333332</v>
+        <v>17.045454545454547</v>
+      </c>
+      <c r="F15" s="32">
+        <f>AVERAGE(E15:E17)</f>
+        <v>14.873737373737375</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
@@ -1037,134 +1074,163 @@
         <v>3</v>
       </c>
       <c r="B16" s="4">
+        <f t="shared" ref="B16:B22" si="2">B3</f>
         <v>12.5</v>
       </c>
-      <c r="C16" s="4">
-        <v>25</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8.33</v>
-      </c>
-      <c r="E16" s="35">
-        <f t="shared" ref="E16:E23" si="0">(B16+C16+D16)/3</f>
-        <v>15.276666666666666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+      <c r="C16" s="37">
+        <f t="shared" ref="C16:C22" si="3">E3</f>
+        <v>20</v>
+      </c>
+      <c r="D16" s="34">
+        <f t="shared" ref="D16:D22" si="4">K3</f>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="E16" s="31">
+        <f t="shared" ref="E16:E22" si="5">(B16+C16+D16)/3</f>
+        <v>13.863636363636365</v>
+      </c>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="4">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="37">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D17" s="34">
+        <f t="shared" si="4"/>
+        <v>13.636363636363637</v>
+      </c>
+      <c r="E17" s="31">
+        <f t="shared" si="5"/>
+        <v>13.712121212121213</v>
+      </c>
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="E17" s="34">
-        <f t="shared" si="0"/>
+      <c r="B18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="37">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A18" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4">
-        <v>10</v>
-      </c>
-      <c r="D18" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="E18" s="34">
-        <f t="shared" si="0"/>
-        <v>9.1666666666666661</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D18" s="34">
+        <f t="shared" si="4"/>
+        <v>13.636363636363637</v>
+      </c>
+      <c r="E18" s="30">
+        <f t="shared" si="5"/>
+        <v>7.8787878787878789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="4">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="37">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="D19" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="E19" s="34">
-        <f t="shared" si="0"/>
-        <v>11.666666666666666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D19" s="34">
+        <f t="shared" si="4"/>
+        <v>13.636363636363637</v>
+      </c>
+      <c r="E19" s="30">
+        <f t="shared" si="5"/>
+        <v>12.045454545454547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="8">
-        <v>20</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="4">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C20" s="37">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="D20" s="32">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="E20" s="34">
-        <f t="shared" si="0"/>
-        <v>13.89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D20" s="34">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="E20" s="30">
+        <f t="shared" si="5"/>
+        <v>13.030303030303031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="4">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="37">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="D21" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="E21" s="34">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D21" s="34">
+        <f t="shared" si="4"/>
+        <v>13.636363636363637</v>
+      </c>
+      <c r="E21" s="30">
+        <f t="shared" si="5"/>
+        <v>10.378787878787879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="4">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="37">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="D22" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="E22" s="34">
-        <f t="shared" si="0"/>
-        <v>11.666666666666666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1">
-      <c r="E23" s="33">
+      <c r="D22" s="34">
+        <f t="shared" si="4"/>
+        <v>13.636363636363637</v>
+      </c>
+      <c r="E22" s="30">
+        <f t="shared" si="5"/>
+        <v>12.045454545454547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A23" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="29">
         <f>SUM(E15:E22)</f>
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F15:F17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
